--- a/New Idea/Planner.xlsx
+++ b/New Idea/Planner.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukeh\Desktop\Dissertation\New Idea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fluke\Desktop\Dissertation\New Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67BDA03-CC3C-431B-AE22-5C1F2B49E1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC2E0A5-764E-420A-8C96-D9803D5CC29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F1C073E-7DB9-E242-BB39-302AFDA3FEA0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="143">
   <si>
     <t>Assignment Tracker</t>
   </si>
@@ -345,81 +345,9 @@
     <t xml:space="preserve">15th Jan Poster Submission      </t>
   </si>
   <si>
-    <t>Create a contract and GDPR form - have people sign</t>
-  </si>
-  <si>
-    <t>Conduct tests and interviews</t>
-  </si>
-  <si>
-    <t>Basic analysis of data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start displaying data in graphs </t>
-  </si>
-  <si>
-    <t>Finish displaying data in graphs</t>
-  </si>
-  <si>
-    <t>Research into UX Laws</t>
-  </si>
-  <si>
-    <t>Wireframing menu</t>
-  </si>
-  <si>
-    <t>Wireframing menu &amp; start Designing Poster</t>
-  </si>
-  <si>
-    <t>Start planning dates with people I want to conduct tests with - meeting with supervisor to help with creation of forms and look at questions</t>
-  </si>
-  <si>
-    <t>Meeting with supervisor - see if I got enough and correct data</t>
-  </si>
-  <si>
-    <t>Meeting with supervisor for feedback on finished wireframe</t>
-  </si>
-  <si>
-    <t>Meeting with supervisor for feedback on wireframe</t>
-  </si>
-  <si>
-    <t>Implement feedback</t>
-  </si>
-  <si>
     <t>Finish poster</t>
   </si>
   <si>
-    <t>Start creation of figma and meeting with supervisor for feedback on poster</t>
-  </si>
-  <si>
-    <t>Figma creation</t>
-  </si>
-  <si>
-    <t>Meeting with supervisor for initial feedback</t>
-  </si>
-  <si>
-    <t>Meeting with supervisor for final feedback, start discussing with partipants times for them to try new creation</t>
-  </si>
-  <si>
-    <t>User Testing and interviews</t>
-  </si>
-  <si>
-    <t>Finalise times</t>
-  </si>
-  <si>
-    <t>Data visualisation</t>
-  </si>
-  <si>
-    <t>Meeting with supervisor about user testing and results</t>
-  </si>
-  <si>
-    <t>Update my Figma creation based on tests conducted</t>
-  </si>
-  <si>
-    <t>Meeting with supervisor about latest update to figma creation</t>
-  </si>
-  <si>
-    <t>Implement feedback from supervisor</t>
-  </si>
-  <si>
     <t>CHRISTMAS</t>
   </si>
   <si>
@@ -478,6 +406,66 @@
   </si>
   <si>
     <t>Report, video &amp; soft submit</t>
+  </si>
+  <si>
+    <t>Read into camera angles and editing</t>
+  </si>
+  <si>
+    <t>Think into possible storyboard</t>
+  </si>
+  <si>
+    <t>Read into lighting and music</t>
+  </si>
+  <si>
+    <t>Think into possible storyboard/create</t>
+  </si>
+  <si>
+    <t>Create GDPR forms</t>
+  </si>
+  <si>
+    <t>Create unity scene</t>
+  </si>
+  <si>
+    <t>Create storyboard and find unity assets</t>
+  </si>
+  <si>
+    <t>Edit scenes</t>
+  </si>
+  <si>
+    <t>Record unity scene, find music for scenes</t>
+  </si>
+  <si>
+    <t>Find participants to user tests</t>
+  </si>
+  <si>
+    <t>Start designing poster</t>
+  </si>
+  <si>
+    <t>Start poster presentation</t>
+  </si>
+  <si>
+    <t>User testing</t>
+  </si>
+  <si>
+    <t>Poster presentation</t>
+  </si>
+  <si>
+    <t>Storyboard advert</t>
+  </si>
+  <si>
+    <t>Create scene in unity</t>
+  </si>
+  <si>
+    <t>Find unity assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record scene </t>
+  </si>
+  <si>
+    <t>Find music for scenes</t>
+  </si>
+  <si>
+    <t>Edit changes from user testing</t>
   </si>
 </sst>
 </file>
@@ -953,25 +941,16 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -995,6 +974,27 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1021,18 +1021,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1381,34 +1369,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="43" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="42" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="44"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:8" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1547,14 +1535,14 @@
       <c r="B12" s="18">
         <v>45211</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="35" t="s">
+      <c r="C12" s="50"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="36"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
@@ -1563,14 +1551,14 @@
       <c r="B13" s="19">
         <v>45225</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="37" t="s">
+      <c r="C13" s="51"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="38"/>
+      <c r="H13" s="49"/>
     </row>
     <row r="14" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -1672,17 +1660,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:H1"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1693,7 +1681,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1711,22 +1699,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="27" t="s">
         <v>86</v>
       </c>
@@ -1747,62 +1735,62 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="60"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="60"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="60"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="60"/>
-    </row>
-    <row r="7" spans="1:8" ht="84" x14ac:dyDescent="0.25">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="37"/>
+    </row>
+    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>35</v>
       </c>
@@ -1813,11 +1801,11 @@
         <v>87</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="21" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="21"/>
@@ -1831,11 +1819,11 @@
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="21" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="21" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="21"/>
@@ -1849,16 +1837,16 @@
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="21" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>38</v>
       </c>
@@ -1867,12 +1855,10 @@
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="E10" s="22"/>
-      <c r="F10" s="21" t="s">
-        <v>111</v>
-      </c>
+      <c r="F10" s="21"/>
       <c r="G10" s="22"/>
       <c r="H10" s="21"/>
     </row>
@@ -1887,16 +1873,16 @@
         <v>87</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="21" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>40</v>
       </c>
@@ -1905,11 +1891,11 @@
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="21" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="21"/>
@@ -1919,18 +1905,18 @@
         <v>41</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
-    </row>
-    <row r="14" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="60"/>
+    </row>
+    <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>53</v>
       </c>
@@ -1939,16 +1925,16 @@
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="21" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>54</v>
       </c>
@@ -1957,11 +1943,11 @@
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="21" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="21"/>
@@ -1977,10 +1963,12 @@
         <v>101</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E16" s="22"/>
-      <c r="F16" s="21"/>
+      <c r="F16" s="21" t="s">
+        <v>135</v>
+      </c>
       <c r="G16" s="22"/>
       <c r="H16" s="21"/>
     </row>
@@ -1995,11 +1983,11 @@
         <v>100</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="21" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="21"/>
@@ -2013,14 +2001,16 @@
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="E18" s="22"/>
-      <c r="F18" s="21"/>
+      <c r="F18" s="21" t="s">
+        <v>139</v>
+      </c>
       <c r="G18" s="22"/>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>58</v>
       </c>
@@ -2029,12 +2019,10 @@
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E19" s="22"/>
-      <c r="F19" s="21" t="s">
-        <v>119</v>
-      </c>
+      <c r="F19" s="21"/>
       <c r="G19" s="22"/>
       <c r="H19" s="21"/>
     </row>
@@ -2047,12 +2035,10 @@
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="21" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="E20" s="22"/>
-      <c r="F20" s="21" t="s">
-        <v>121</v>
-      </c>
+      <c r="F20" s="21"/>
       <c r="G20" s="22"/>
       <c r="H20" s="21"/>
     </row>
@@ -2065,14 +2051,16 @@
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E21" s="22"/>
-      <c r="F21" s="21"/>
+      <c r="F21" s="21" t="s">
+        <v>141</v>
+      </c>
       <c r="G21" s="22"/>
       <c r="H21" s="21"/>
     </row>
-    <row r="22" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>61</v>
       </c>
@@ -2081,16 +2069,16 @@
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="21" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="21"/>
     </row>
-    <row r="23" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>62</v>
       </c>
@@ -2099,14 +2087,16 @@
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E23" s="22"/>
-      <c r="F23" s="21"/>
+      <c r="F23" s="21" t="s">
+        <v>135</v>
+      </c>
       <c r="G23" s="22"/>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>63</v>
       </c>
@@ -2114,12 +2104,12 @@
         <v>71</v>
       </c>
       <c r="C24" s="32"/>
-      <c r="D24" s="32" t="s">
-        <v>125</v>
+      <c r="D24" s="21" t="s">
+        <v>142</v>
       </c>
       <c r="E24" s="33"/>
-      <c r="F24" s="32" t="s">
-        <v>126</v>
+      <c r="F24" s="21" t="s">
+        <v>135</v>
       </c>
       <c r="G24" s="33"/>
       <c r="H24" s="32"/>
@@ -2135,11 +2125,11 @@
         <v>87</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="21" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="21"/>
@@ -2153,11 +2143,11 @@
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="21" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="21" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="21"/>
@@ -2171,11 +2161,11 @@
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="21" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="21" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="G27" s="22"/>
       <c r="H27" s="21"/>
@@ -2193,7 +2183,7 @@
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="21" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="21"/>
@@ -2207,11 +2197,11 @@
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="21" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="21" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="21"/>
@@ -2227,36 +2217,36 @@
         <v>85</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="21" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="53"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="57"/>
     </row>
     <row r="34" spans="3:4" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="50"/>
+      <c r="D34" s="54"/>
     </row>
     <row r="35" spans="3:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="C35" s="27" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>94</v>
@@ -2267,7 +2257,7 @@
         <v>92</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="3:4" ht="21" x14ac:dyDescent="0.35">
@@ -2275,7 +2265,7 @@
         <v>95</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="3:4" ht="21" x14ac:dyDescent="0.35">
@@ -2283,31 +2273,31 @@
         <v>96</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C39" s="25" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C40" s="25" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="3:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C41" s="25" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="3:4" ht="21" x14ac:dyDescent="0.35">
@@ -2315,7 +2305,7 @@
         <v>97</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/New Idea/Planner.xlsx
+++ b/New Idea/Planner.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fluke\Desktop\Dissertation\New Idea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukeh\Desktop\Dissertation\New Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC2E0A5-764E-420A-8C96-D9803D5CC29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D110FF06-3B1C-460B-B972-7A160A9C279D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F1C073E-7DB9-E242-BB39-302AFDA3FEA0}"/>
   </bookViews>
@@ -953,6 +953,27 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -973,27 +994,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1369,34 +1369,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="39" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="40" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="39" t="s">
+      <c r="F2" s="48"/>
+      <c r="G2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="41"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1535,14 +1535,14 @@
       <c r="B12" s="18">
         <v>45211</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="46" t="s">
+      <c r="C12" s="43"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="47"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
@@ -1551,14 +1551,14 @@
       <c r="B13" s="19">
         <v>45225</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="48" t="s">
+      <c r="C13" s="44"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="49"/>
+      <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -1660,17 +1660,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1681,7 +1681,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1803,11 +1803,15 @@
       <c r="D7" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="22">
+        <v>100</v>
+      </c>
       <c r="F7" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="G7" s="22"/>
+      <c r="G7" s="22">
+        <v>0</v>
+      </c>
       <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
@@ -1821,11 +1825,15 @@
       <c r="D8" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="22">
+        <v>100</v>
+      </c>
       <c r="F8" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="22">
+        <v>0</v>
+      </c>
       <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">

--- a/New Idea/Planner.xlsx
+++ b/New Idea/Planner.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukeh\Desktop\Dissertation\New Idea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fluke\Desktop\Dissertation\New Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D110FF06-3B1C-460B-B972-7A160A9C279D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B86F307-03E9-49CE-A542-01DD1D234A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F1C073E-7DB9-E242-BB39-302AFDA3FEA0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="144">
   <si>
     <t>Assignment Tracker</t>
   </si>
@@ -466,6 +466,9 @@
   </si>
   <si>
     <t>Edit changes from user testing</t>
+  </si>
+  <si>
+    <t>Have GDPR forms completed</t>
   </si>
 </sst>
 </file>
@@ -953,27 +956,6 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -994,6 +976,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1369,34 +1372,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="47" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="46" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="48"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:8" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1535,14 +1538,14 @@
       <c r="B12" s="18">
         <v>45211</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="39" t="s">
+      <c r="C12" s="50"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="40"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
@@ -1551,14 +1554,14 @@
       <c r="B13" s="19">
         <v>45225</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="41" t="s">
+      <c r="C13" s="51"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="42"/>
+      <c r="H13" s="49"/>
     </row>
     <row r="14" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -1660,17 +1663,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:H1"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1681,7 +1684,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1832,7 +1835,7 @@
         <v>126</v>
       </c>
       <c r="G8" s="22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H8" s="21"/>
     </row>
@@ -1851,7 +1854,9 @@
       <c r="F9" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G9" s="22"/>
+      <c r="G9" s="22">
+        <v>75</v>
+      </c>
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
@@ -1866,7 +1871,9 @@
         <v>128</v>
       </c>
       <c r="E10" s="22"/>
-      <c r="F10" s="21"/>
+      <c r="F10" s="21" t="s">
+        <v>143</v>
+      </c>
       <c r="G10" s="22"/>
       <c r="H10" s="21"/>
     </row>

--- a/New Idea/Planner.xlsx
+++ b/New Idea/Planner.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fluke\Desktop\Dissertation\New Idea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukeh\Desktop\Dissertation\New Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B86F307-03E9-49CE-A542-01DD1D234A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E1FD1F-BA9D-4A7E-9504-E459BCB52F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F1C073E-7DB9-E242-BB39-302AFDA3FEA0}"/>
   </bookViews>
@@ -956,6 +956,27 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -976,27 +997,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1372,34 +1372,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="39" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="40" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="39" t="s">
+      <c r="F2" s="48"/>
+      <c r="G2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="41"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1538,14 +1538,14 @@
       <c r="B12" s="18">
         <v>45211</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="46" t="s">
+      <c r="C12" s="43"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="47"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
@@ -1554,14 +1554,14 @@
       <c r="B13" s="19">
         <v>45225</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="48" t="s">
+      <c r="C13" s="44"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="49"/>
+      <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -1663,17 +1663,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1684,7 +1684,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C13" sqref="C13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1813,7 +1813,7 @@
         <v>124</v>
       </c>
       <c r="G7" s="22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H7" s="21"/>
     </row>
@@ -1835,7 +1835,7 @@
         <v>126</v>
       </c>
       <c r="G8" s="22">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H8" s="21"/>
     </row>
@@ -1850,12 +1850,14 @@
       <c r="D9" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="22">
+        <v>100</v>
+      </c>
       <c r="F9" s="21" t="s">
         <v>127</v>
       </c>
       <c r="G9" s="22">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H9" s="21"/>
     </row>
@@ -1870,11 +1872,15 @@
       <c r="D10" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="22">
+        <v>0</v>
+      </c>
       <c r="F10" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="G10" s="22"/>
+      <c r="G10" s="22">
+        <v>100</v>
+      </c>
       <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
@@ -1890,11 +1896,15 @@
       <c r="D11" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="22">
+        <v>0</v>
+      </c>
       <c r="F11" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="G11" s="22"/>
+      <c r="G11" s="22">
+        <v>50</v>
+      </c>
       <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
@@ -1908,11 +1918,15 @@
       <c r="D12" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
       <c r="F12" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="22"/>
+      <c r="G12" s="22">
+        <v>50</v>
+      </c>
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/New Idea/Planner.xlsx
+++ b/New Idea/Planner.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukeh\Desktop\Dissertation\New Idea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fluke\Desktop\Dissertation\New Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E1FD1F-BA9D-4A7E-9504-E459BCB52F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B9B587-44E9-4AFB-BA14-878CB605F660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F1C073E-7DB9-E242-BB39-302AFDA3FEA0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="146">
   <si>
     <t>Assignment Tracker</t>
   </si>
@@ -348,9 +348,6 @@
     <t>Finish poster</t>
   </si>
   <si>
-    <t>CHRISTMAS</t>
-  </si>
-  <si>
     <t>Start creation of report</t>
   </si>
   <si>
@@ -423,18 +420,12 @@
     <t>Create GDPR forms</t>
   </si>
   <si>
-    <t>Create unity scene</t>
-  </si>
-  <si>
     <t>Create storyboard and find unity assets</t>
   </si>
   <si>
     <t>Edit scenes</t>
   </si>
   <si>
-    <t>Record unity scene, find music for scenes</t>
-  </si>
-  <si>
     <t>Find participants to user tests</t>
   </si>
   <si>
@@ -469,13 +460,28 @@
   </si>
   <si>
     <t>Have GDPR forms completed</t>
+  </si>
+  <si>
+    <t>Create SIFU Scene</t>
+  </si>
+  <si>
+    <t>Record SIFU scene</t>
+  </si>
+  <si>
+    <t>Edit scenes (music, lighting, aspect ratios)</t>
+  </si>
+  <si>
+    <t>Edit scenes (SFX, speed ramps, effects)</t>
+  </si>
+  <si>
+    <t>Form questions for user testing, render scenes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -548,15 +554,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="48"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,18 +612,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -801,48 +794,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -926,34 +882,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1012,15 +962,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1372,34 +1313,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="47" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="46" t="s">
+      <c r="F2" s="46"/>
+      <c r="G2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="48"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1538,14 +1479,14 @@
       <c r="B12" s="18">
         <v>45211</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="39" t="s">
+      <c r="C12" s="41"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="40"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
@@ -1554,14 +1495,14 @@
       <c r="B13" s="19">
         <v>45225</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="41" t="s">
+      <c r="C13" s="42"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="42"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -1684,7 +1625,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:H13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1702,22 +1643,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="27" t="s">
         <v>86</v>
       </c>
@@ -1738,60 +1679,60 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="37"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="37"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="37"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="37"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -1804,13 +1745,13 @@
         <v>87</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" s="22">
         <v>100</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G7" s="22">
         <v>100</v>
@@ -1826,13 +1767,13 @@
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E8" s="22">
         <v>100</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G8" s="22">
         <v>100</v>
@@ -1848,13 +1789,13 @@
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E9" s="22">
         <v>100</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G9" s="22">
         <v>100</v>
@@ -1870,13 +1811,13 @@
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E10" s="22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G10" s="22">
         <v>100</v>
@@ -1894,16 +1835,16 @@
         <v>87</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E11" s="22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G11" s="22">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H11" s="21"/>
     </row>
@@ -1916,34 +1857,40 @@
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E12" s="22">
+        <v>33</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="22">
+        <v>100</v>
+      </c>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="22">
+        <v>10</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="22">
         <v>0</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="G12" s="22">
-        <v>50</v>
-      </c>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="60"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
@@ -1954,11 +1901,11 @@
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="21"/>
@@ -1972,11 +1919,11 @@
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="21"/>
@@ -1996,7 +1943,7 @@
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="21"/>
@@ -2012,11 +1959,11 @@
         <v>100</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="21"/>
@@ -2030,11 +1977,11 @@
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="21"/>
@@ -2048,7 +1995,7 @@
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="21"/>
@@ -2064,7 +2011,7 @@
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="21"/>
@@ -2080,11 +2027,11 @@
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="21"/>
@@ -2098,11 +2045,11 @@
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="21"/>
@@ -2116,32 +2063,32 @@
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="21"/>
     </row>
     <row r="24" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="32"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" s="33"/>
+        <v>139</v>
+      </c>
+      <c r="E24" s="32"/>
       <c r="F24" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="32"/>
+        <v>132</v>
+      </c>
+      <c r="G24" s="32"/>
+      <c r="H24" s="31"/>
     </row>
     <row r="25" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
@@ -2154,11 +2101,11 @@
         <v>87</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="21"/>
@@ -2172,11 +2119,11 @@
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="21"/>
@@ -2190,11 +2137,11 @@
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G27" s="22"/>
       <c r="H27" s="21"/>
@@ -2212,7 +2159,7 @@
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="21"/>
@@ -2226,11 +2173,11 @@
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="21"/>
@@ -2246,36 +2193,36 @@
         <v>85</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="57"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="55"/>
     </row>
     <row r="34" spans="3:4" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="54"/>
+      <c r="D34" s="52"/>
     </row>
     <row r="35" spans="3:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="C35" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>94</v>
@@ -2286,7 +2233,7 @@
         <v>92</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="3:4" ht="21" x14ac:dyDescent="0.35">
@@ -2294,7 +2241,7 @@
         <v>95</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="3:4" ht="21" x14ac:dyDescent="0.35">
@@ -2302,31 +2249,31 @@
         <v>96</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C39" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C40" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="3:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C41" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="25" t="s">
         <v>117</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="42" spans="3:4" ht="21" x14ac:dyDescent="0.35">
@@ -2334,19 +2281,18 @@
         <v>97</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="A31:H31"/>
-    <mergeCell ref="C13:H13"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="E3:E12">
+  <conditionalFormatting sqref="E3:E13">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2376,7 +2322,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G12">
+  <conditionalFormatting sqref="G3:G13">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/New Idea/Planner.xlsx
+++ b/New Idea/Planner.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fluke\Desktop\Dissertation\New Idea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukeh\Desktop\Dissertation\New Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B9B587-44E9-4AFB-BA14-878CB605F660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD20CFBE-771B-4530-BBA2-5C8FCED55F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F1C073E-7DB9-E242-BB39-302AFDA3FEA0}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{4F1C073E-7DB9-E242-BB39-302AFDA3FEA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="147">
   <si>
     <t>Assignment Tracker</t>
   </si>
@@ -475,6 +475,9 @@
   </si>
   <si>
     <t>Form questions for user testing, render scenes</t>
+  </si>
+  <si>
+    <t>User testing, update plan</t>
   </si>
 </sst>
 </file>
@@ -906,6 +909,27 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -926,27 +950,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1313,34 +1316,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="50"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="44" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="45" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="44" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="46"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1479,14 +1482,14 @@
       <c r="B12" s="18">
         <v>45211</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="37" t="s">
+      <c r="C12" s="48"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="38"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
@@ -1495,14 +1498,14 @@
       <c r="B13" s="19">
         <v>45225</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="39" t="s">
+      <c r="C13" s="49"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="40"/>
+      <c r="H13" s="47"/>
     </row>
     <row r="14" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -1604,17 +1607,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:H1"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1625,7 +1628,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1860,7 +1863,7 @@
         <v>143</v>
       </c>
       <c r="E12" s="22">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>129</v>
@@ -1882,13 +1885,13 @@
         <v>144</v>
       </c>
       <c r="E13" s="22">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F13" s="21" t="s">
         <v>145</v>
       </c>
       <c r="G13" s="22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H13" s="21"/>
     </row>
@@ -1903,11 +1906,15 @@
       <c r="D14" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="22"/>
+      <c r="E14" s="22">
+        <v>25</v>
+      </c>
       <c r="F14" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="G14" s="22"/>
+        <v>146</v>
+      </c>
+      <c r="G14" s="22">
+        <v>0</v>
+      </c>
       <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">

--- a/New Idea/Planner.xlsx
+++ b/New Idea/Planner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukeh\Desktop\Dissertation\New Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD20CFBE-771B-4530-BBA2-5C8FCED55F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE4062A-42BA-45E4-9C72-78464F36CA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{4F1C073E-7DB9-E242-BB39-302AFDA3FEA0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F1C073E-7DB9-E242-BB39-302AFDA3FEA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -342,9 +342,6 @@
     <t>22nd Jan Poster Presentation</t>
   </si>
   <si>
-    <t xml:space="preserve">15th Jan Poster Submission      </t>
-  </si>
-  <si>
     <t>Finish poster</t>
   </si>
   <si>
@@ -478,6 +475,9 @@
   </si>
   <si>
     <t>User testing, update plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18th Jan Poster Submission      </t>
   </si>
 </sst>
 </file>
@@ -909,6 +909,27 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -929,27 +950,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1316,34 +1316,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="38" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="37" t="s">
+      <c r="F2" s="46"/>
+      <c r="G2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="39"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1482,14 +1482,14 @@
       <c r="B12" s="18">
         <v>45211</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="44" t="s">
+      <c r="C12" s="41"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="45"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
@@ -1498,14 +1498,14 @@
       <c r="B13" s="19">
         <v>45225</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="46" t="s">
+      <c r="C13" s="42"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="47"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -1607,17 +1607,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1628,7 +1628,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1748,13 +1748,13 @@
         <v>87</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="22">
         <v>100</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G7" s="22">
         <v>100</v>
@@ -1770,13 +1770,13 @@
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" s="22">
         <v>100</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G8" s="22">
         <v>100</v>
@@ -1792,13 +1792,13 @@
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" s="22">
         <v>100</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G9" s="22">
         <v>100</v>
@@ -1814,13 +1814,13 @@
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E10" s="22">
         <v>100</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G10" s="22">
         <v>100</v>
@@ -1838,13 +1838,13 @@
         <v>87</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E11" s="22">
         <v>100</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G11" s="22">
         <v>100</v>
@@ -1860,13 +1860,13 @@
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E12" s="22">
         <v>100</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G12" s="22">
         <v>100</v>
@@ -1878,17 +1878,17 @@
         <v>41</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E13" s="22">
         <v>100</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G13" s="22">
         <v>100</v>
@@ -1904,16 +1904,16 @@
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E14" s="22">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G14" s="22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14" s="21"/>
     </row>
@@ -1926,13 +1926,15 @@
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="G15" s="22"/>
+        <v>131</v>
+      </c>
+      <c r="G15" s="22">
+        <v>25</v>
+      </c>
       <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
@@ -1943,14 +1945,14 @@
         <v>65</v>
       </c>
       <c r="C16" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>101</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>102</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="21"/>
@@ -1966,11 +1968,11 @@
         <v>100</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="21"/>
@@ -1984,11 +1986,11 @@
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="21"/>
@@ -2002,7 +2004,7 @@
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="21"/>
@@ -2018,7 +2020,7 @@
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="21"/>
@@ -2034,11 +2036,11 @@
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="21"/>
@@ -2052,11 +2054,11 @@
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="21"/>
@@ -2070,11 +2072,11 @@
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="21"/>
@@ -2088,11 +2090,11 @@
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G24" s="32"/>
       <c r="H24" s="31"/>
@@ -2108,11 +2110,11 @@
         <v>87</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="21"/>
@@ -2126,11 +2128,11 @@
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="21"/>
@@ -2144,11 +2146,11 @@
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G27" s="22"/>
       <c r="H27" s="21"/>
@@ -2166,7 +2168,7 @@
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="21"/>
@@ -2180,11 +2182,11 @@
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="21"/>
@@ -2200,11 +2202,11 @@
         <v>85</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="21"/>
@@ -2229,7 +2231,7 @@
     </row>
     <row r="35" spans="3:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="C35" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>94</v>
@@ -2240,7 +2242,7 @@
         <v>92</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="3:4" ht="21" x14ac:dyDescent="0.35">
@@ -2248,7 +2250,7 @@
         <v>95</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="3:4" ht="21" x14ac:dyDescent="0.35">
@@ -2256,31 +2258,31 @@
         <v>96</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C39" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C40" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="3:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C41" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="25" t="s">
         <v>116</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="42" spans="3:4" ht="21" x14ac:dyDescent="0.35">
@@ -2288,7 +2290,7 @@
         <v>97</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/New Idea/Planner.xlsx
+++ b/New Idea/Planner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukeh\Desktop\Dissertation\New Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE4062A-42BA-45E4-9C72-78464F36CA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2A49E3-0DBE-48B1-B1DF-53E8B1B1F578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F1C073E-7DB9-E242-BB39-302AFDA3FEA0}"/>
   </bookViews>
@@ -909,6 +909,27 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -929,27 +950,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1316,34 +1316,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="50"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="44" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="45" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="44" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="46"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1482,14 +1482,14 @@
       <c r="B12" s="18">
         <v>45211</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="37" t="s">
+      <c r="C12" s="48"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="38"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
@@ -1498,14 +1498,14 @@
       <c r="B13" s="19">
         <v>45225</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="39" t="s">
+      <c r="C13" s="49"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="40"/>
+      <c r="H13" s="47"/>
     </row>
     <row r="14" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -1607,17 +1607,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:H1"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1907,7 +1907,7 @@
         <v>129</v>
       </c>
       <c r="E14" s="22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>145</v>

--- a/New Idea/Planner.xlsx
+++ b/New Idea/Planner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukeh\Desktop\Dissertation\New Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2A49E3-0DBE-48B1-B1DF-53E8B1B1F578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EA7F18-E80E-459C-9B9F-282B61BF6BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F1C073E-7DB9-E242-BB39-302AFDA3FEA0}"/>
   </bookViews>
@@ -429,9 +429,6 @@
     <t>Start designing poster</t>
   </si>
   <si>
-    <t>Start poster presentation</t>
-  </si>
-  <si>
     <t>User testing</t>
   </si>
   <si>
@@ -478,6 +475,9 @@
   </si>
   <si>
     <t xml:space="preserve">18th Jan Poster Submission      </t>
+  </si>
+  <si>
+    <t>Start poster</t>
   </si>
 </sst>
 </file>
@@ -909,6 +909,27 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -929,27 +950,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1316,34 +1316,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="38" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="37" t="s">
+      <c r="F2" s="46"/>
+      <c r="G2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="39"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1482,14 +1482,14 @@
       <c r="B12" s="18">
         <v>45211</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="44" t="s">
+      <c r="C12" s="41"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="45"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
@@ -1498,14 +1498,14 @@
       <c r="B13" s="19">
         <v>45225</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="46" t="s">
+      <c r="C13" s="42"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="47"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -1607,17 +1607,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1628,7 +1628,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1814,13 +1814,13 @@
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E10" s="22">
         <v>100</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G10" s="22">
         <v>100</v>
@@ -1838,13 +1838,13 @@
         <v>87</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E11" s="22">
         <v>100</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G11" s="22">
         <v>100</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E12" s="22">
         <v>100</v>
@@ -1882,13 +1882,13 @@
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E13" s="22">
         <v>100</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G13" s="22">
         <v>100</v>
@@ -1907,10 +1907,10 @@
         <v>129</v>
       </c>
       <c r="E14" s="22">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G14" s="22">
         <v>100</v>
@@ -1926,14 +1926,16 @@
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="22">
+        <v>80</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="21" t="s">
-        <v>131</v>
-      </c>
       <c r="G15" s="22">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H15" s="21"/>
     </row>
@@ -1945,14 +1947,14 @@
         <v>65</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>101</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="21"/>
@@ -1968,11 +1970,11 @@
         <v>100</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="21"/>
@@ -1986,11 +1988,11 @@
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="21"/>
@@ -2004,7 +2006,7 @@
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="21"/>
@@ -2020,7 +2022,7 @@
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="21"/>
@@ -2036,11 +2038,11 @@
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="21"/>
@@ -2058,7 +2060,7 @@
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="21"/>
@@ -2072,11 +2074,11 @@
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="21"/>
@@ -2090,11 +2092,11 @@
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G24" s="32"/>
       <c r="H24" s="31"/>

--- a/New Idea/Planner.xlsx
+++ b/New Idea/Planner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukeh\Desktop\Dissertation\New Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EA7F18-E80E-459C-9B9F-282B61BF6BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583682D1-8B40-404A-B57D-403CC68E0175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F1C073E-7DB9-E242-BB39-302AFDA3FEA0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="149">
   <si>
     <t>Assignment Tracker</t>
   </si>
@@ -432,18 +432,9 @@
     <t>User testing</t>
   </si>
   <si>
-    <t>Poster presentation</t>
-  </si>
-  <si>
     <t>Storyboard advert</t>
   </si>
   <si>
-    <t>Create scene in unity</t>
-  </si>
-  <si>
-    <t>Find unity assets</t>
-  </si>
-  <si>
     <t xml:space="preserve">Record scene </t>
   </si>
   <si>
@@ -478,6 +469,21 @@
   </si>
   <si>
     <t>Start poster</t>
+  </si>
+  <si>
+    <t>Create data matrices and pie charts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create scene </t>
+  </si>
+  <si>
+    <t>Create scene</t>
+  </si>
+  <si>
+    <t>User testing, blog</t>
+  </si>
+  <si>
+    <t>Digital marketing research</t>
   </si>
 </sst>
 </file>
@@ -909,6 +915,27 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -929,27 +956,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1316,34 +1322,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="50"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="44" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="45" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="44" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="46"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1482,14 +1488,14 @@
       <c r="B12" s="18">
         <v>45211</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="37" t="s">
+      <c r="C12" s="48"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="38"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
@@ -1498,14 +1504,14 @@
       <c r="B13" s="19">
         <v>45225</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="39" t="s">
+      <c r="C13" s="49"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="40"/>
+      <c r="H13" s="47"/>
     </row>
     <row r="14" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -1607,17 +1613,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:H1"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1628,7 +1634,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1814,13 +1820,13 @@
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E10" s="22">
         <v>100</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G10" s="22">
         <v>100</v>
@@ -1838,13 +1844,13 @@
         <v>87</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E11" s="22">
         <v>100</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G11" s="22">
         <v>100</v>
@@ -1860,7 +1866,7 @@
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E12" s="22">
         <v>100</v>
@@ -1882,13 +1888,13 @@
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E13" s="22">
         <v>100</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G13" s="22">
         <v>100</v>
@@ -1910,7 +1916,7 @@
         <v>100</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G14" s="22">
         <v>100</v>
@@ -1926,10 +1932,10 @@
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E15" s="22">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>130</v>
@@ -1947,16 +1953,20 @@
         <v>65</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="22"/>
+      <c r="E16" s="22">
+        <v>100</v>
+      </c>
       <c r="F16" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="G16" s="22"/>
+        <v>147</v>
+      </c>
+      <c r="G16" s="22">
+        <v>100</v>
+      </c>
       <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
@@ -1970,11 +1980,11 @@
         <v>100</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="21" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="21"/>
@@ -1988,12 +1998,10 @@
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E18" s="22"/>
-      <c r="F18" s="21" t="s">
-        <v>134</v>
-      </c>
+      <c r="F18" s="21"/>
       <c r="G18" s="22"/>
       <c r="H18" s="21"/>
     </row>
@@ -2006,7 +2014,7 @@
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="21"/>
@@ -2022,7 +2030,7 @@
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="21" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="21"/>
@@ -2038,11 +2046,11 @@
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="21"/>
@@ -2074,7 +2082,7 @@
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="21" t="s">
@@ -2092,7 +2100,7 @@
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="21" t="s">

--- a/New Idea/Planner.xlsx
+++ b/New Idea/Planner.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukeh\Desktop\Dissertation\New Idea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fluke\Desktop\Dissertation\New Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583682D1-8B40-404A-B57D-403CC68E0175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50154CAC-BB9D-465E-BB00-A8EA285DB298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F1C073E-7DB9-E242-BB39-302AFDA3FEA0}"/>
   </bookViews>
@@ -915,6 +915,27 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -935,27 +956,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1322,34 +1322,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="38" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="37" t="s">
+      <c r="F2" s="46"/>
+      <c r="G2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="39"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1488,14 +1488,14 @@
       <c r="B12" s="18">
         <v>45211</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="44" t="s">
+      <c r="C12" s="41"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="45"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
@@ -1504,14 +1504,14 @@
       <c r="B13" s="19">
         <v>45225</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="46" t="s">
+      <c r="C13" s="42"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="47"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -1613,17 +1613,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1634,7 +1634,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1982,7 +1982,9 @@
       <c r="D17" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="22"/>
+      <c r="E17" s="22">
+        <v>50</v>
+      </c>
       <c r="F17" s="21" t="s">
         <v>148</v>
       </c>

--- a/New Idea/Planner.xlsx
+++ b/New Idea/Planner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fluke\Desktop\Dissertation\New Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50154CAC-BB9D-465E-BB00-A8EA285DB298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A44D2D-8442-4074-B3D0-D9B54DC202CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F1C073E-7DB9-E242-BB39-302AFDA3FEA0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F1C073E-7DB9-E242-BB39-302AFDA3FEA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="150">
   <si>
     <t>Assignment Tracker</t>
   </si>
@@ -484,6 +484,9 @@
   </si>
   <si>
     <t>Digital marketing research</t>
+  </si>
+  <si>
+    <t>Creating a PDF document containing all the user testing data into one file</t>
   </si>
 </sst>
 </file>
@@ -915,6 +918,27 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -935,27 +959,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1322,34 +1325,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="50"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="44" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="45" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="44" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="46"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1488,14 +1491,14 @@
       <c r="B12" s="18">
         <v>45211</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="37" t="s">
+      <c r="C12" s="48"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="38"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
@@ -1504,14 +1507,14 @@
       <c r="B13" s="19">
         <v>45225</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="39" t="s">
+      <c r="C13" s="49"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="40"/>
+      <c r="H13" s="47"/>
     </row>
     <row r="14" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -1613,17 +1616,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:H1"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1634,7 +1637,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1969,7 +1972,7 @@
       </c>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>56</v>
       </c>
@@ -1983,13 +1986,17 @@
         <v>144</v>
       </c>
       <c r="E17" s="22">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F17" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="21"/>
+      <c r="G17" s="22">
+        <v>0</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">

--- a/New Idea/Planner.xlsx
+++ b/New Idea/Planner.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fluke\Desktop\Dissertation\New Idea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukeh\Desktop\Dissertation\New Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A44D2D-8442-4074-B3D0-D9B54DC202CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C139786F-D11C-44B6-AA15-BC9A39AE240D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F1C073E-7DB9-E242-BB39-302AFDA3FEA0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F1C073E-7DB9-E242-BB39-302AFDA3FEA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="152">
   <si>
     <t>Assignment Tracker</t>
   </si>
@@ -486,7 +486,13 @@
     <t>Digital marketing research</t>
   </si>
   <si>
-    <t>Creating a PDF document containing all the user testing data into one file</t>
+    <t>Blog post</t>
+  </si>
+  <si>
+    <t>Creating a PDF document containing all the user testing data into one file. Also did research into propaganda as well as video</t>
+  </si>
+  <si>
+    <t>Created a blog post for propaganda and primary as well as secondary research</t>
   </si>
 </sst>
 </file>
@@ -918,6 +924,27 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -938,27 +965,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1325,34 +1331,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="38" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="37" t="s">
+      <c r="F2" s="46"/>
+      <c r="G2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="39"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1491,14 +1497,14 @@
       <c r="B12" s="18">
         <v>45211</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="44" t="s">
+      <c r="C12" s="41"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="45"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
@@ -1507,14 +1513,14 @@
       <c r="B13" s="19">
         <v>45225</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="46" t="s">
+      <c r="C13" s="42"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="47"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -1616,17 +1622,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1637,7 +1643,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1972,7 +1978,7 @@
       </c>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>56</v>
       </c>
@@ -1992,13 +1998,13 @@
         <v>148</v>
       </c>
       <c r="G17" s="22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>57</v>
       </c>
@@ -2010,9 +2016,15 @@
         <v>131</v>
       </c>
       <c r="E18" s="22"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="21"/>
+      <c r="F18" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="22">
+        <v>100</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">

--- a/New Idea/Planner.xlsx
+++ b/New Idea/Planner.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukeh\Desktop\Dissertation\New Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C139786F-D11C-44B6-AA15-BC9A39AE240D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F25F48D-6454-4048-910D-FA23666B91F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F1C073E-7DB9-E242-BB39-302AFDA3FEA0}"/>
   </bookViews>
@@ -924,6 +924,27 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -944,27 +965,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1016,9 +1016,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1056,7 +1056,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1162,7 +1162,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1304,7 +1304,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1331,34 +1331,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="50"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="44" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="45" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="44" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="46"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1497,14 +1497,14 @@
       <c r="B12" s="18">
         <v>45211</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="37" t="s">
+      <c r="C12" s="48"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="38"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
@@ -1513,14 +1513,14 @@
       <c r="B13" s="19">
         <v>45225</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="39" t="s">
+      <c r="C13" s="49"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="40"/>
+      <c r="H13" s="47"/>
     </row>
     <row r="14" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -1622,17 +1622,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:H1"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1643,7 +1643,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2015,7 +2015,9 @@
       <c r="D18" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="22"/>
+      <c r="E18" s="22">
+        <v>100</v>
+      </c>
       <c r="F18" s="21" t="s">
         <v>149</v>
       </c>
@@ -2037,7 +2039,9 @@
       <c r="D19" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="22"/>
+      <c r="E19" s="22">
+        <v>100</v>
+      </c>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
       <c r="H19" s="21"/>
@@ -2053,7 +2057,9 @@
       <c r="D20" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="22">
+        <v>100</v>
+      </c>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
       <c r="H20" s="21"/>
@@ -2069,11 +2075,15 @@
       <c r="D21" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="22"/>
+      <c r="E21" s="22">
+        <v>100</v>
+      </c>
       <c r="F21" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="G21" s="22"/>
+      <c r="G21" s="22">
+        <v>100</v>
+      </c>
       <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
@@ -2087,11 +2097,15 @@
       <c r="D22" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="E22" s="22"/>
+      <c r="E22" s="22">
+        <v>100</v>
+      </c>
       <c r="F22" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="22"/>
+      <c r="G22" s="22">
+        <v>100</v>
+      </c>
       <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
@@ -2105,11 +2119,15 @@
       <c r="D23" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="22"/>
+      <c r="E23" s="22">
+        <v>100</v>
+      </c>
       <c r="F23" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="G23" s="22"/>
+      <c r="G23" s="22">
+        <v>100</v>
+      </c>
       <c r="H23" s="21"/>
     </row>
     <row r="24" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
@@ -2123,11 +2141,15 @@
       <c r="D24" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="32"/>
+      <c r="E24" s="32">
+        <v>100</v>
+      </c>
       <c r="F24" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="G24" s="32"/>
+      <c r="G24" s="32">
+        <v>100</v>
+      </c>
       <c r="H24" s="31"/>
     </row>
     <row r="25" spans="1:8" ht="42" x14ac:dyDescent="0.25">

--- a/New Idea/Planner.xlsx
+++ b/New Idea/Planner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukeh\Desktop\Dissertation\New Idea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fluke\Desktop\Dissertation\New Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F25F48D-6454-4048-910D-FA23666B91F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B323DDA2-AFC2-405F-8659-57E584CF7F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F1C073E-7DB9-E242-BB39-302AFDA3FEA0}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{4F1C073E-7DB9-E242-BB39-302AFDA3FEA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -924,6 +924,27 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -944,27 +965,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1331,34 +1331,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="38" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="37" t="s">
+      <c r="F2" s="46"/>
+      <c r="G2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="39"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1497,14 +1497,14 @@
       <c r="B12" s="18">
         <v>45211</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="44" t="s">
+      <c r="C12" s="41"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="45"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
@@ -1513,14 +1513,14 @@
       <c r="B13" s="19">
         <v>45225</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="46" t="s">
+      <c r="C13" s="42"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="47"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -1622,17 +1622,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
